--- a/Code/Results/Cases/Case_3_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9911717361359221</v>
+        <v>1.022634547218986</v>
       </c>
       <c r="D2">
-        <v>1.010636530554449</v>
+        <v>1.027289883076897</v>
       </c>
       <c r="E2">
-        <v>1.00427884751968</v>
+        <v>1.032823614672814</v>
       </c>
       <c r="F2">
-        <v>1.005227532709579</v>
+        <v>1.042712067092526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039156336202953</v>
+        <v>1.028440351683639</v>
       </c>
       <c r="J2">
-        <v>1.01361974395144</v>
+        <v>1.027819279863118</v>
       </c>
       <c r="K2">
-        <v>1.021949644114339</v>
+        <v>1.030110043985621</v>
       </c>
       <c r="L2">
-        <v>1.015678891340984</v>
+        <v>1.035627733886319</v>
       </c>
       <c r="M2">
-        <v>1.016614516964287</v>
+        <v>1.045487981023039</v>
       </c>
       <c r="N2">
-        <v>1.008474997441411</v>
+        <v>1.013320039186339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9953732059441804</v>
+        <v>1.023524801313748</v>
       </c>
       <c r="D3">
-        <v>1.013595349813614</v>
+        <v>1.027929781129339</v>
       </c>
       <c r="E3">
-        <v>1.008074236409654</v>
+        <v>1.033688454792816</v>
       </c>
       <c r="F3">
-        <v>1.010041368935287</v>
+        <v>1.043829514048163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039934864888428</v>
+        <v>1.028540745559051</v>
       </c>
       <c r="J3">
-        <v>1.015990801671582</v>
+        <v>1.028347975078077</v>
       </c>
       <c r="K3">
-        <v>1.024057181411872</v>
+        <v>1.030558089848618</v>
       </c>
       <c r="L3">
-        <v>1.018604837859149</v>
+        <v>1.036301276812463</v>
       </c>
       <c r="M3">
-        <v>1.020547360747047</v>
+        <v>1.046415512701386</v>
       </c>
       <c r="N3">
-        <v>1.009275034752888</v>
+        <v>1.013496837698308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.998038225074229</v>
+        <v>1.024101291327291</v>
       </c>
       <c r="D4">
-        <v>1.015473462680516</v>
+        <v>1.028343903086897</v>
       </c>
       <c r="E4">
-        <v>1.010487304244802</v>
+        <v>1.034248896023099</v>
       </c>
       <c r="F4">
-        <v>1.013102279402856</v>
+        <v>1.044553918907022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040417448078435</v>
+        <v>1.028604341663883</v>
       </c>
       <c r="J4">
-        <v>1.017492246728887</v>
+        <v>1.028689896723169</v>
       </c>
       <c r="K4">
-        <v>1.025388655869175</v>
+        <v>1.030847384713133</v>
       </c>
       <c r="L4">
-        <v>1.020460783318823</v>
+        <v>1.036737297164336</v>
       </c>
       <c r="M4">
-        <v>1.023045102126804</v>
+        <v>1.047016442363344</v>
       </c>
       <c r="N4">
-        <v>1.009781433323017</v>
+        <v>1.01361112520472</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9991461972194277</v>
+        <v>1.024343751004691</v>
       </c>
       <c r="D5">
-        <v>1.016254537643244</v>
+        <v>1.02851801399006</v>
       </c>
       <c r="E5">
-        <v>1.0114918558753</v>
+        <v>1.034484703398088</v>
       </c>
       <c r="F5">
-        <v>1.014376645475051</v>
+        <v>1.044858778967335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040615339407678</v>
+        <v>1.028630749995278</v>
       </c>
       <c r="J5">
-        <v>1.018115829659993</v>
+        <v>1.028833596621795</v>
       </c>
       <c r="K5">
-        <v>1.025940881240835</v>
+        <v>1.030968854536975</v>
       </c>
       <c r="L5">
-        <v>1.021232362412909</v>
+        <v>1.036920645320144</v>
       </c>
       <c r="M5">
-        <v>1.024084270252292</v>
+        <v>1.047269252853689</v>
       </c>
       <c r="N5">
-        <v>1.009991696829542</v>
+        <v>1.013659144250849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9993315155740214</v>
+        <v>1.024384467074947</v>
       </c>
       <c r="D6">
-        <v>1.016385192863396</v>
+        <v>1.028547248754279</v>
       </c>
       <c r="E6">
-        <v>1.011659953584911</v>
+        <v>1.034524308061161</v>
       </c>
       <c r="F6">
-        <v>1.014589901104798</v>
+        <v>1.044909985063761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040648276152053</v>
+        <v>1.028635164850385</v>
       </c>
       <c r="J6">
-        <v>1.018220091210536</v>
+        <v>1.028857721860557</v>
       </c>
       <c r="K6">
-        <v>1.026033166382099</v>
+        <v>1.030989241041538</v>
       </c>
       <c r="L6">
-        <v>1.021361413938643</v>
+        <v>1.036951432903376</v>
       </c>
       <c r="M6">
-        <v>1.024258123911212</v>
+        <v>1.047311711353766</v>
       </c>
       <c r="N6">
-        <v>1.010026849060672</v>
+        <v>1.013667205240912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9980530780242537</v>
+        <v>1.024104530680965</v>
       </c>
       <c r="D7">
-        <v>1.015483932466353</v>
+        <v>1.028346229512136</v>
       </c>
       <c r="E7">
-        <v>1.010500765575529</v>
+        <v>1.034252046116826</v>
       </c>
       <c r="F7">
-        <v>1.013119355810829</v>
+        <v>1.044557991204929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040420111798543</v>
+        <v>1.028604695820764</v>
       </c>
       <c r="J7">
-        <v>1.017500608743264</v>
+        <v>1.02869181702222</v>
       </c>
       <c r="K7">
-        <v>1.025396064056544</v>
+        <v>1.030849008388643</v>
       </c>
       <c r="L7">
-        <v>1.020471126866227</v>
+        <v>1.036739746895032</v>
       </c>
       <c r="M7">
-        <v>1.023059029803112</v>
+        <v>1.047019819724797</v>
       </c>
       <c r="N7">
-        <v>1.009784253099093</v>
+        <v>1.01361176694579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9926030108721791</v>
+        <v>1.022935321787505</v>
       </c>
       <c r="D8">
-        <v>1.011644171031233</v>
+        <v>1.027506125197307</v>
       </c>
       <c r="E8">
-        <v>1.00557059235656</v>
+        <v>1.033115718442022</v>
       </c>
       <c r="F8">
-        <v>1.006865859976619</v>
+        <v>1.043089435052936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03942387988637</v>
+        <v>1.028474562639299</v>
       </c>
       <c r="J8">
-        <v>1.014427981815739</v>
+        <v>1.027997991462755</v>
       </c>
       <c r="K8">
-        <v>1.022668691282708</v>
+        <v>1.030261591041546</v>
       </c>
       <c r="L8">
-        <v>1.016675631469922</v>
+        <v>1.035855320290934</v>
       </c>
       <c r="M8">
-        <v>1.017953625118203</v>
+        <v>1.045801287837854</v>
       </c>
       <c r="N8">
-        <v>1.008747754767166</v>
+        <v>1.01337981223024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9825681310963149</v>
+        <v>1.02087841586815</v>
       </c>
       <c r="D9">
-        <v>1.004587546382087</v>
+        <v>1.026026321666619</v>
       </c>
       <c r="E9">
-        <v>0.9965388430403831</v>
+        <v>1.031119790602394</v>
       </c>
       <c r="F9">
-        <v>0.9954104184083329</v>
+        <v>1.040511973912917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037502239070679</v>
+        <v>1.028234819296704</v>
       </c>
       <c r="J9">
-        <v>1.008751835393505</v>
+        <v>1.026774050828654</v>
       </c>
       <c r="K9">
-        <v>1.01760662976335</v>
+        <v>1.02922178185718</v>
       </c>
       <c r="L9">
-        <v>1.009688325818567</v>
+        <v>1.034298370870074</v>
       </c>
       <c r="M9">
-        <v>1.008578399862807</v>
+        <v>1.043659902962463</v>
       </c>
       <c r="N9">
-        <v>1.006831426248299</v>
+        <v>1.012970230078871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9755577999544719</v>
+        <v>1.019509490108021</v>
       </c>
       <c r="D10">
-        <v>0.9996709865778427</v>
+        <v>1.025040260007554</v>
       </c>
       <c r="E10">
-        <v>0.9902620830693405</v>
+        <v>1.029793567471242</v>
       </c>
       <c r="F10">
-        <v>0.9874466541183329</v>
+        <v>1.038800665593501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036103527243023</v>
+        <v>1.028068010858298</v>
       </c>
       <c r="J10">
-        <v>1.004775896129156</v>
+        <v>1.02595725338935</v>
       </c>
       <c r="K10">
-        <v>1.014046184005684</v>
+        <v>1.028525478954284</v>
       </c>
       <c r="L10">
-        <v>1.004809413034148</v>
+        <v>1.033261488449885</v>
       </c>
       <c r="M10">
-        <v>1.002046323494532</v>
+        <v>1.042236287473016</v>
       </c>
       <c r="N10">
-        <v>1.005488240846401</v>
+        <v>1.012696627407784</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9724388835596408</v>
+        <v>1.018917299873852</v>
       </c>
       <c r="D11">
-        <v>0.9974876957794031</v>
+        <v>1.024613416231746</v>
       </c>
       <c r="E11">
-        <v>0.9874777271650996</v>
+        <v>1.029220356217333</v>
       </c>
       <c r="F11">
-        <v>0.9839126155817531</v>
+        <v>1.038061322283728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035468541419498</v>
+        <v>1.027994132682564</v>
       </c>
       <c r="J11">
-        <v>1.00300495035563</v>
+        <v>1.025603384627842</v>
       </c>
       <c r="K11">
-        <v>1.012457146508877</v>
+        <v>1.028223251467916</v>
       </c>
       <c r="L11">
-        <v>1.002639723073013</v>
+        <v>1.032812776354947</v>
       </c>
       <c r="M11">
-        <v>0.9991444299475627</v>
+        <v>1.041620800957874</v>
       </c>
       <c r="N11">
-        <v>1.00488980510671</v>
+        <v>1.01257802915268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9712671731275945</v>
+        <v>1.018697419786595</v>
       </c>
       <c r="D12">
-        <v>0.9966681827892422</v>
+        <v>1.024454888141358</v>
       </c>
       <c r="E12">
-        <v>0.9864329722118921</v>
+        <v>1.029007599324792</v>
       </c>
       <c r="F12">
-        <v>0.9825862982495627</v>
+        <v>1.037786948248804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03522814051918</v>
+        <v>1.027966443844959</v>
       </c>
       <c r="J12">
-        <v>1.002339379545095</v>
+        <v>1.025471914403315</v>
       </c>
       <c r="K12">
-        <v>1.011859494754841</v>
+        <v>1.028110883082952</v>
       </c>
       <c r="L12">
-        <v>1.001824794070113</v>
+        <v>1.032646145458578</v>
       </c>
       <c r="M12">
-        <v>0.9980548984493491</v>
+        <v>1.041392325272956</v>
       </c>
       <c r="N12">
-        <v>1.004664876153091</v>
+        <v>1.012533957844252</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9715191179660787</v>
+        <v>1.018744580915209</v>
       </c>
       <c r="D13">
-        <v>0.9968443638433599</v>
+        <v>1.024488891993645</v>
       </c>
       <c r="E13">
-        <v>0.9866575607623558</v>
+        <v>1.029053229172656</v>
       </c>
       <c r="F13">
-        <v>0.9828714266108174</v>
+        <v>1.037845791038045</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035279914936714</v>
+        <v>1.027972394371771</v>
       </c>
       <c r="J13">
-        <v>1.002482503904536</v>
+        <v>1.025500116446986</v>
       </c>
       <c r="K13">
-        <v>1.011988033552691</v>
+        <v>1.028134991336359</v>
       </c>
       <c r="L13">
-        <v>1.002000014075057</v>
+        <v>1.032681886491727</v>
       </c>
       <c r="M13">
-        <v>0.9982891434660696</v>
+        <v>1.041441327578349</v>
       </c>
       <c r="N13">
-        <v>1.00471324572465</v>
+        <v>1.012543412126917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9723423030840714</v>
+        <v>1.018899122762231</v>
       </c>
       <c r="D14">
-        <v>0.9974201310517263</v>
+        <v>1.024600311819264</v>
       </c>
       <c r="E14">
-        <v>0.9873915852350772</v>
+        <v>1.029202766409702</v>
       </c>
       <c r="F14">
-        <v>0.9838032640771576</v>
+        <v>1.038038637314959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035448763191409</v>
+        <v>1.027991848954087</v>
       </c>
       <c r="J14">
-        <v>1.00295009452965</v>
+        <v>1.025592517815837</v>
       </c>
       <c r="K14">
-        <v>1.012407897446021</v>
+        <v>1.028213965251663</v>
       </c>
       <c r="L14">
-        <v>1.002572547183469</v>
+        <v>1.032799001756097</v>
       </c>
       <c r="M14">
-        <v>0.9990546099936604</v>
+        <v>1.041601912155558</v>
       </c>
       <c r="N14">
-        <v>1.004871267024195</v>
+        <v>1.012574386582615</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9728477236615655</v>
+        <v>1.018994352486651</v>
       </c>
       <c r="D15">
-        <v>0.9977737369075119</v>
+        <v>1.024668964039451</v>
       </c>
       <c r="E15">
-        <v>0.9878424312170877</v>
+        <v>1.02929492238075</v>
       </c>
       <c r="F15">
-        <v>0.9843755721867949</v>
+        <v>1.038157489557066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035552190635391</v>
+        <v>1.028003802825318</v>
       </c>
       <c r="J15">
-        <v>1.003237153041145</v>
+        <v>1.025649445718494</v>
       </c>
       <c r="K15">
-        <v>1.012665597912318</v>
+        <v>1.028262609456707</v>
       </c>
       <c r="L15">
-        <v>1.00292409644566</v>
+        <v>1.032871165765082</v>
       </c>
       <c r="M15">
-        <v>0.9995246781964897</v>
+        <v>1.041700872644748</v>
       </c>
       <c r="N15">
-        <v>1.004968275328955</v>
+        <v>1.012593468508632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9757629783775774</v>
+        <v>1.019548803788632</v>
       </c>
       <c r="D16">
-        <v>0.999814707428024</v>
+        <v>1.025068591040205</v>
       </c>
       <c r="E16">
-        <v>0.9904454262376856</v>
+        <v>1.029831631885361</v>
       </c>
       <c r="F16">
-        <v>0.9876793289760428</v>
+        <v>1.038849768521136</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036145040076281</v>
+        <v>1.028072879213731</v>
       </c>
       <c r="J16">
-        <v>1.004892359108448</v>
+        <v>1.025980734569653</v>
       </c>
       <c r="K16">
-        <v>1.014150620610596</v>
+        <v>1.028545521642261</v>
       </c>
       <c r="L16">
-        <v>1.004952169144921</v>
+        <v>1.03329127365602</v>
       </c>
       <c r="M16">
-        <v>1.002237314375022</v>
+        <v>1.042277155346394</v>
       </c>
       <c r="N16">
-        <v>1.005527592865298</v>
+        <v>1.012704495749757</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9775688495292485</v>
+        <v>1.019896748088348</v>
       </c>
       <c r="D17">
-        <v>1.001080138990741</v>
+        <v>1.025319301710286</v>
       </c>
       <c r="E17">
-        <v>0.9920600524579797</v>
+        <v>1.030168578120179</v>
       </c>
       <c r="F17">
-        <v>0.9897282393311326</v>
+        <v>1.039284463102742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036508974979958</v>
+        <v>1.02811576790777</v>
       </c>
       <c r="J17">
-        <v>1.005917176969745</v>
+        <v>1.026188493091866</v>
       </c>
       <c r="K17">
-        <v>1.015069255926749</v>
+        <v>1.02872279198949</v>
       </c>
       <c r="L17">
-        <v>1.006208744841585</v>
+        <v>1.033554867822222</v>
       </c>
       <c r="M17">
-        <v>1.003918799062796</v>
+        <v>1.042638896822823</v>
       </c>
       <c r="N17">
-        <v>1.005873853864715</v>
+        <v>1.012774106599085</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9786141851024284</v>
+        <v>1.020099752425355</v>
       </c>
       <c r="D18">
-        <v>1.001813022404628</v>
+        <v>1.025465549193886</v>
       </c>
       <c r="E18">
-        <v>0.9929954603639882</v>
+        <v>1.030365214589977</v>
       </c>
       <c r="F18">
-        <v>0.9909151205883679</v>
+        <v>1.039538173634442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036718431069885</v>
+        <v>1.028140625013646</v>
       </c>
       <c r="J18">
-        <v>1.006510200362142</v>
+        <v>1.026309656719346</v>
       </c>
       <c r="K18">
-        <v>1.015600533933689</v>
+        <v>1.028826120880698</v>
       </c>
       <c r="L18">
-        <v>1.006936206674157</v>
+        <v>1.033708643327572</v>
       </c>
       <c r="M18">
-        <v>1.004892535441692</v>
+        <v>1.042849985948914</v>
       </c>
       <c r="N18">
-        <v>1.006074206599844</v>
+        <v>1.012814697200349</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789692806327863</v>
+        <v>1.020168980838826</v>
       </c>
       <c r="D19">
-        <v>1.002062041929227</v>
+        <v>1.025515417827153</v>
       </c>
       <c r="E19">
-        <v>0.9933133444002831</v>
+        <v>1.030432279712091</v>
       </c>
       <c r="F19">
-        <v>0.9913184451120095</v>
+        <v>1.039624709571219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0367893755517</v>
+        <v>1.028149073634025</v>
       </c>
       <c r="J19">
-        <v>1.006711613043104</v>
+        <v>1.026350967234815</v>
       </c>
       <c r="K19">
-        <v>1.015780923639326</v>
+        <v>1.028861341472292</v>
       </c>
       <c r="L19">
-        <v>1.007183335948838</v>
+        <v>1.033761081094811</v>
       </c>
       <c r="M19">
-        <v>1.005223377027494</v>
+        <v>1.042921977368085</v>
       </c>
       <c r="N19">
-        <v>1.006142251067897</v>
+        <v>1.012828535460896</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9773759287132017</v>
+        <v>1.019859411332359</v>
       </c>
       <c r="D20">
-        <v>1.000944912836275</v>
+        <v>1.025292401555875</v>
       </c>
       <c r="E20">
-        <v>0.9918874816163021</v>
+        <v>1.03013241647761</v>
       </c>
       <c r="F20">
-        <v>0.9895092654318111</v>
+        <v>1.039237807876296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036470220920481</v>
+        <v>1.028111182813779</v>
       </c>
       <c r="J20">
-        <v>1.005807715987096</v>
+        <v>1.026166204465346</v>
       </c>
       <c r="K20">
-        <v>1.014971167415387</v>
+        <v>1.028703779781404</v>
       </c>
       <c r="L20">
-        <v>1.006074495761447</v>
+        <v>1.033526584019489</v>
       </c>
       <c r="M20">
-        <v>1.003739124610127</v>
+        <v>1.042600075920772</v>
       </c>
       <c r="N20">
-        <v>1.005836871237385</v>
+        <v>1.012766639276024</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9721002658011698</v>
+        <v>1.018853611665032</v>
       </c>
       <c r="D21">
-        <v>0.9972508208439647</v>
+        <v>1.024567500874034</v>
       </c>
       <c r="E21">
-        <v>0.9871757282239529</v>
+        <v>1.029158727013525</v>
       </c>
       <c r="F21">
-        <v>0.9835292433440881</v>
+        <v>1.037981841957018</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035399167987485</v>
+        <v>1.027986126883801</v>
       </c>
       <c r="J21">
-        <v>1.002812617964465</v>
+        <v>1.025565308670331</v>
       </c>
       <c r="K21">
-        <v>1.012284465124911</v>
+        <v>1.028190712364592</v>
       </c>
       <c r="L21">
-        <v>1.002404202781118</v>
+        <v>1.032764513096966</v>
       </c>
       <c r="M21">
-        <v>0.9988295255168539</v>
+        <v>1.041554620033711</v>
       </c>
       <c r="N21">
-        <v>1.004824807620825</v>
+        <v>1.012565265888915</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9687064717292062</v>
+        <v>1.01822172204166</v>
       </c>
       <c r="D22">
-        <v>0.9948785784548426</v>
+        <v>1.024111847532657</v>
       </c>
       <c r="E22">
-        <v>0.9841520988070215</v>
+        <v>1.028547452007058</v>
       </c>
       <c r="F22">
-        <v>0.9796901685586535</v>
+        <v>1.03719361894257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034699421985896</v>
+        <v>1.027906069344612</v>
       </c>
       <c r="J22">
-        <v>1.000884377462882</v>
+        <v>1.025187342357953</v>
       </c>
       <c r="K22">
-        <v>1.010552179039476</v>
+        <v>1.02786750428558</v>
       </c>
       <c r="L22">
-        <v>1.000044181625396</v>
+        <v>1.032285605134816</v>
       </c>
       <c r="M22">
-        <v>0.995674997178298</v>
+        <v>1.040898130619859</v>
       </c>
       <c r="N22">
-        <v>1.004173127122661</v>
+        <v>1.012438546808549</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9705131018239732</v>
+        <v>1.018556651267987</v>
       </c>
       <c r="D23">
-        <v>0.9961409824811539</v>
+        <v>1.02435338605305</v>
       </c>
       <c r="E23">
-        <v>0.9857609671479199</v>
+        <v>1.028871412631021</v>
       </c>
       <c r="F23">
-        <v>0.9817331045249733</v>
+        <v>1.037611332877063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035072912961324</v>
+        <v>1.027948644715302</v>
       </c>
       <c r="J23">
-        <v>1.001910972721332</v>
+        <v>1.025387724232727</v>
       </c>
       <c r="K23">
-        <v>1.011474682773011</v>
+        <v>1.028038901619062</v>
       </c>
       <c r="L23">
-        <v>1.001300389007642</v>
+        <v>1.032539460587664</v>
       </c>
       <c r="M23">
-        <v>0.9973538985156198</v>
+        <v>1.041246069075467</v>
       </c>
       <c r="N23">
-        <v>1.004520091345629</v>
+        <v>1.012505733070722</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9774631259943831</v>
+        <v>1.019876282037506</v>
       </c>
       <c r="D24">
-        <v>1.001006031823867</v>
+        <v>1.025304556540251</v>
       </c>
       <c r="E24">
-        <v>0.9919654786173889</v>
+        <v>1.030148756054033</v>
       </c>
       <c r="F24">
-        <v>0.9896082356392447</v>
+        <v>1.039258888868886</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036487740919894</v>
+        <v>1.028113255112173</v>
       </c>
       <c r="J24">
-        <v>1.005857191302291</v>
+        <v>1.026176275793216</v>
       </c>
       <c r="K24">
-        <v>1.015015503419649</v>
+        <v>1.028712370795964</v>
       </c>
       <c r="L24">
-        <v>1.006135174037886</v>
+        <v>1.033539364173808</v>
       </c>
       <c r="M24">
-        <v>1.003820333489331</v>
+        <v>1.042617617132891</v>
       </c>
       <c r="N24">
-        <v>1.005853587078668</v>
+        <v>1.012770013475711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9852165079509987</v>
+        <v>1.02140976689525</v>
       </c>
       <c r="D25">
-        <v>1.006447948082695</v>
+        <v>1.026408809553403</v>
       </c>
       <c r="E25">
-        <v>0.9989169522755038</v>
+        <v>1.031635016525695</v>
       </c>
       <c r="F25">
-        <v>0.9984269283430183</v>
+        <v>1.04117708009192</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0380193038381</v>
+        <v>1.028298031407603</v>
       </c>
       <c r="J25">
-        <v>1.010251847920921</v>
+        <v>1.02709062060638</v>
       </c>
       <c r="K25">
-        <v>1.018946985847297</v>
+        <v>1.02949114814499</v>
       </c>
       <c r="L25">
-        <v>1.011532104463291</v>
+        <v>1.034700692956171</v>
       </c>
       <c r="M25">
-        <v>1.011049713404277</v>
+        <v>1.044212806076294</v>
       </c>
       <c r="N25">
-        <v>1.007338010408242</v>
+        <v>1.013076215097097</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022634547218986</v>
+        <v>0.9911717361359222</v>
       </c>
       <c r="D2">
-        <v>1.027289883076897</v>
+        <v>1.010636530554449</v>
       </c>
       <c r="E2">
-        <v>1.032823614672814</v>
+        <v>1.00427884751968</v>
       </c>
       <c r="F2">
-        <v>1.042712067092526</v>
+        <v>1.005227532709579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028440351683639</v>
+        <v>1.039156336202953</v>
       </c>
       <c r="J2">
-        <v>1.027819279863118</v>
+        <v>1.01361974395144</v>
       </c>
       <c r="K2">
-        <v>1.030110043985621</v>
+        <v>1.021949644114339</v>
       </c>
       <c r="L2">
-        <v>1.035627733886319</v>
+        <v>1.015678891340985</v>
       </c>
       <c r="M2">
-        <v>1.045487981023039</v>
+        <v>1.016614516964287</v>
       </c>
       <c r="N2">
-        <v>1.013320039186339</v>
+        <v>1.008474997441411</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023524801313748</v>
+        <v>0.9953732059441803</v>
       </c>
       <c r="D3">
-        <v>1.027929781129339</v>
+        <v>1.013595349813614</v>
       </c>
       <c r="E3">
-        <v>1.033688454792816</v>
+        <v>1.008074236409654</v>
       </c>
       <c r="F3">
-        <v>1.043829514048163</v>
+        <v>1.010041368935287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028540745559051</v>
+        <v>1.039934864888428</v>
       </c>
       <c r="J3">
-        <v>1.028347975078077</v>
+        <v>1.015990801671582</v>
       </c>
       <c r="K3">
-        <v>1.030558089848618</v>
+        <v>1.024057181411872</v>
       </c>
       <c r="L3">
-        <v>1.036301276812463</v>
+        <v>1.018604837859149</v>
       </c>
       <c r="M3">
-        <v>1.046415512701386</v>
+        <v>1.020547360747047</v>
       </c>
       <c r="N3">
-        <v>1.013496837698308</v>
+        <v>1.009275034752888</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024101291327291</v>
+        <v>0.9980382250742285</v>
       </c>
       <c r="D4">
-        <v>1.028343903086897</v>
+        <v>1.015473462680516</v>
       </c>
       <c r="E4">
-        <v>1.034248896023099</v>
+        <v>1.010487304244801</v>
       </c>
       <c r="F4">
-        <v>1.044553918907022</v>
+        <v>1.013102279402855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028604341663883</v>
+        <v>1.040417448078435</v>
       </c>
       <c r="J4">
-        <v>1.028689896723169</v>
+        <v>1.017492246728886</v>
       </c>
       <c r="K4">
-        <v>1.030847384713133</v>
+        <v>1.025388655869174</v>
       </c>
       <c r="L4">
-        <v>1.036737297164336</v>
+        <v>1.020460783318822</v>
       </c>
       <c r="M4">
-        <v>1.047016442363344</v>
+        <v>1.023045102126804</v>
       </c>
       <c r="N4">
-        <v>1.01361112520472</v>
+        <v>1.009781433323016</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024343751004691</v>
+        <v>0.999146197219428</v>
       </c>
       <c r="D5">
-        <v>1.02851801399006</v>
+        <v>1.016254537643244</v>
       </c>
       <c r="E5">
-        <v>1.034484703398088</v>
+        <v>1.0114918558753</v>
       </c>
       <c r="F5">
-        <v>1.044858778967335</v>
+        <v>1.014376645475051</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028630749995278</v>
+        <v>1.040615339407679</v>
       </c>
       <c r="J5">
-        <v>1.028833596621795</v>
+        <v>1.018115829659993</v>
       </c>
       <c r="K5">
-        <v>1.030968854536975</v>
+        <v>1.025940881240835</v>
       </c>
       <c r="L5">
-        <v>1.036920645320144</v>
+        <v>1.021232362412909</v>
       </c>
       <c r="M5">
-        <v>1.047269252853689</v>
+        <v>1.024084270252292</v>
       </c>
       <c r="N5">
-        <v>1.013659144250849</v>
+        <v>1.009991696829542</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024384467074947</v>
+        <v>0.9993315155740218</v>
       </c>
       <c r="D6">
-        <v>1.028547248754279</v>
+        <v>1.016385192863396</v>
       </c>
       <c r="E6">
-        <v>1.034524308061161</v>
+        <v>1.011659953584911</v>
       </c>
       <c r="F6">
-        <v>1.044909985063761</v>
+        <v>1.014589901104799</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028635164850385</v>
+        <v>1.040648276152053</v>
       </c>
       <c r="J6">
-        <v>1.028857721860557</v>
+        <v>1.018220091210536</v>
       </c>
       <c r="K6">
-        <v>1.030989241041538</v>
+        <v>1.026033166382099</v>
       </c>
       <c r="L6">
-        <v>1.036951432903376</v>
+        <v>1.021361413938643</v>
       </c>
       <c r="M6">
-        <v>1.047311711353766</v>
+        <v>1.024258123911213</v>
       </c>
       <c r="N6">
-        <v>1.013667205240912</v>
+        <v>1.010026849060672</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024104530680965</v>
+        <v>0.9980530780242537</v>
       </c>
       <c r="D7">
-        <v>1.028346229512136</v>
+        <v>1.015483932466352</v>
       </c>
       <c r="E7">
-        <v>1.034252046116826</v>
+        <v>1.010500765575528</v>
       </c>
       <c r="F7">
-        <v>1.044557991204929</v>
+        <v>1.013119355810829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028604695820764</v>
+        <v>1.040420111798543</v>
       </c>
       <c r="J7">
-        <v>1.02869181702222</v>
+        <v>1.017500608743264</v>
       </c>
       <c r="K7">
-        <v>1.030849008388643</v>
+        <v>1.025396064056544</v>
       </c>
       <c r="L7">
-        <v>1.036739746895032</v>
+        <v>1.020471126866226</v>
       </c>
       <c r="M7">
-        <v>1.047019819724797</v>
+        <v>1.023059029803111</v>
       </c>
       <c r="N7">
-        <v>1.01361176694579</v>
+        <v>1.009784253099093</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022935321787505</v>
+        <v>0.9926030108721799</v>
       </c>
       <c r="D8">
-        <v>1.027506125197307</v>
+        <v>1.011644171031234</v>
       </c>
       <c r="E8">
-        <v>1.033115718442022</v>
+        <v>1.005570592356561</v>
       </c>
       <c r="F8">
-        <v>1.043089435052936</v>
+        <v>1.00686585997662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028474562639299</v>
+        <v>1.03942387988637</v>
       </c>
       <c r="J8">
-        <v>1.027997991462755</v>
+        <v>1.01442798181574</v>
       </c>
       <c r="K8">
-        <v>1.030261591041546</v>
+        <v>1.022668691282709</v>
       </c>
       <c r="L8">
-        <v>1.035855320290934</v>
+        <v>1.016675631469923</v>
       </c>
       <c r="M8">
-        <v>1.045801287837854</v>
+        <v>1.017953625118204</v>
       </c>
       <c r="N8">
-        <v>1.01337981223024</v>
+        <v>1.008747754767166</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02087841586815</v>
+        <v>0.9825681310963154</v>
       </c>
       <c r="D9">
-        <v>1.026026321666619</v>
+        <v>1.004587546382088</v>
       </c>
       <c r="E9">
-        <v>1.031119790602394</v>
+        <v>0.9965388430403833</v>
       </c>
       <c r="F9">
-        <v>1.040511973912917</v>
+        <v>0.9954104184083337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028234819296704</v>
+        <v>1.037502239070679</v>
       </c>
       <c r="J9">
-        <v>1.026774050828654</v>
+        <v>1.008751835393506</v>
       </c>
       <c r="K9">
-        <v>1.02922178185718</v>
+        <v>1.017606629763351</v>
       </c>
       <c r="L9">
-        <v>1.034298370870074</v>
+        <v>1.009688325818567</v>
       </c>
       <c r="M9">
-        <v>1.043659902962463</v>
+        <v>1.008578399862807</v>
       </c>
       <c r="N9">
-        <v>1.012970230078871</v>
+        <v>1.006831426248299</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019509490108021</v>
+        <v>0.975557799954472</v>
       </c>
       <c r="D10">
-        <v>1.025040260007554</v>
+        <v>0.9996709865778426</v>
       </c>
       <c r="E10">
-        <v>1.029793567471242</v>
+        <v>0.9902620830693406</v>
       </c>
       <c r="F10">
-        <v>1.038800665593501</v>
+        <v>0.9874466541183329</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028068010858298</v>
+        <v>1.036103527243023</v>
       </c>
       <c r="J10">
-        <v>1.02595725338935</v>
+        <v>1.004775896129156</v>
       </c>
       <c r="K10">
-        <v>1.028525478954284</v>
+        <v>1.014046184005684</v>
       </c>
       <c r="L10">
-        <v>1.033261488449885</v>
+        <v>1.004809413034148</v>
       </c>
       <c r="M10">
-        <v>1.042236287473016</v>
+        <v>1.002046323494531</v>
       </c>
       <c r="N10">
-        <v>1.012696627407784</v>
+        <v>1.005488240846401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.018917299873852</v>
+        <v>0.9724388835596409</v>
       </c>
       <c r="D11">
-        <v>1.024613416231746</v>
+        <v>0.9974876957794034</v>
       </c>
       <c r="E11">
-        <v>1.029220356217333</v>
+        <v>0.9874777271650999</v>
       </c>
       <c r="F11">
-        <v>1.038061322283728</v>
+        <v>0.9839126155817535</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027994132682564</v>
+        <v>1.035468541419498</v>
       </c>
       <c r="J11">
-        <v>1.025603384627842</v>
+        <v>1.00300495035563</v>
       </c>
       <c r="K11">
-        <v>1.028223251467916</v>
+        <v>1.012457146508877</v>
       </c>
       <c r="L11">
-        <v>1.032812776354947</v>
+        <v>1.002639723073013</v>
       </c>
       <c r="M11">
-        <v>1.041620800957874</v>
+        <v>0.999144429947563</v>
       </c>
       <c r="N11">
-        <v>1.01257802915268</v>
+        <v>1.00488980510671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018697419786595</v>
+        <v>0.9712671731275939</v>
       </c>
       <c r="D12">
-        <v>1.024454888141358</v>
+        <v>0.9966681827892421</v>
       </c>
       <c r="E12">
-        <v>1.029007599324792</v>
+        <v>0.9864329722118917</v>
       </c>
       <c r="F12">
-        <v>1.037786948248804</v>
+        <v>0.9825862982495619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027966443844959</v>
+        <v>1.03522814051918</v>
       </c>
       <c r="J12">
-        <v>1.025471914403315</v>
+        <v>1.002339379545095</v>
       </c>
       <c r="K12">
-        <v>1.028110883082952</v>
+        <v>1.011859494754841</v>
       </c>
       <c r="L12">
-        <v>1.032646145458578</v>
+        <v>1.001824794070113</v>
       </c>
       <c r="M12">
-        <v>1.041392325272956</v>
+        <v>0.9980548984493486</v>
       </c>
       <c r="N12">
-        <v>1.012533957844252</v>
+        <v>1.004664876153091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018744580915209</v>
+        <v>0.9715191179660785</v>
       </c>
       <c r="D13">
-        <v>1.024488891993645</v>
+        <v>0.9968443638433597</v>
       </c>
       <c r="E13">
-        <v>1.029053229172656</v>
+        <v>0.9866575607623556</v>
       </c>
       <c r="F13">
-        <v>1.037845791038045</v>
+        <v>0.9828714266108169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027972394371771</v>
+        <v>1.035279914936714</v>
       </c>
       <c r="J13">
-        <v>1.025500116446986</v>
+        <v>1.002482503904536</v>
       </c>
       <c r="K13">
-        <v>1.028134991336359</v>
+        <v>1.011988033552691</v>
       </c>
       <c r="L13">
-        <v>1.032681886491727</v>
+        <v>1.002000014075057</v>
       </c>
       <c r="M13">
-        <v>1.041441327578349</v>
+        <v>0.9982891434660691</v>
       </c>
       <c r="N13">
-        <v>1.012543412126917</v>
+        <v>1.00471324572465</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018899122762231</v>
+        <v>0.9723423030840708</v>
       </c>
       <c r="D14">
-        <v>1.024600311819264</v>
+        <v>0.9974201310517257</v>
       </c>
       <c r="E14">
-        <v>1.029202766409702</v>
+        <v>0.9873915852350764</v>
       </c>
       <c r="F14">
-        <v>1.038038637314959</v>
+        <v>0.9838032640771569</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027991848954087</v>
+        <v>1.035448763191409</v>
       </c>
       <c r="J14">
-        <v>1.025592517815837</v>
+        <v>1.002950094529649</v>
       </c>
       <c r="K14">
-        <v>1.028213965251663</v>
+        <v>1.01240789744602</v>
       </c>
       <c r="L14">
-        <v>1.032799001756097</v>
+        <v>1.002572547183469</v>
       </c>
       <c r="M14">
-        <v>1.041601912155558</v>
+        <v>0.9990546099936598</v>
       </c>
       <c r="N14">
-        <v>1.012574386582615</v>
+        <v>1.004871267024195</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018994352486651</v>
+        <v>0.9728477236615656</v>
       </c>
       <c r="D15">
-        <v>1.024668964039451</v>
+        <v>0.997773736907512</v>
       </c>
       <c r="E15">
-        <v>1.02929492238075</v>
+        <v>0.9878424312170874</v>
       </c>
       <c r="F15">
-        <v>1.038157489557066</v>
+        <v>0.9843755721867948</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028003802825318</v>
+        <v>1.035552190635391</v>
       </c>
       <c r="J15">
-        <v>1.025649445718494</v>
+        <v>1.003237153041146</v>
       </c>
       <c r="K15">
-        <v>1.028262609456707</v>
+        <v>1.012665597912318</v>
       </c>
       <c r="L15">
-        <v>1.032871165765082</v>
+        <v>1.00292409644566</v>
       </c>
       <c r="M15">
-        <v>1.041700872644748</v>
+        <v>0.9995246781964894</v>
       </c>
       <c r="N15">
-        <v>1.012593468508632</v>
+        <v>1.004968275328955</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019548803788632</v>
+        <v>0.9757629783775779</v>
       </c>
       <c r="D16">
-        <v>1.025068591040205</v>
+        <v>0.9998147074280243</v>
       </c>
       <c r="E16">
-        <v>1.029831631885361</v>
+        <v>0.9904454262376862</v>
       </c>
       <c r="F16">
-        <v>1.038849768521136</v>
+        <v>0.9876793289760437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028072879213731</v>
+        <v>1.036145040076281</v>
       </c>
       <c r="J16">
-        <v>1.025980734569653</v>
+        <v>1.004892359108448</v>
       </c>
       <c r="K16">
-        <v>1.028545521642261</v>
+        <v>1.014150620610597</v>
       </c>
       <c r="L16">
-        <v>1.03329127365602</v>
+        <v>1.004952169144921</v>
       </c>
       <c r="M16">
-        <v>1.042277155346394</v>
+        <v>1.002237314375023</v>
       </c>
       <c r="N16">
-        <v>1.012704495749757</v>
+        <v>1.005527592865298</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019896748088348</v>
+        <v>0.9775688495292482</v>
       </c>
       <c r="D17">
-        <v>1.025319301710286</v>
+        <v>1.00108013899074</v>
       </c>
       <c r="E17">
-        <v>1.030168578120179</v>
+        <v>0.9920600524579793</v>
       </c>
       <c r="F17">
-        <v>1.039284463102742</v>
+        <v>0.989728239331132</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02811576790777</v>
+        <v>1.036508974979957</v>
       </c>
       <c r="J17">
-        <v>1.026188493091866</v>
+        <v>1.005917176969744</v>
       </c>
       <c r="K17">
-        <v>1.02872279198949</v>
+        <v>1.015069255926749</v>
       </c>
       <c r="L17">
-        <v>1.033554867822222</v>
+        <v>1.006208744841585</v>
       </c>
       <c r="M17">
-        <v>1.042638896822823</v>
+        <v>1.003918799062795</v>
       </c>
       <c r="N17">
-        <v>1.012774106599085</v>
+        <v>1.005873853864715</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020099752425355</v>
+        <v>0.9786141851024295</v>
       </c>
       <c r="D18">
-        <v>1.025465549193886</v>
+        <v>1.001813022404629</v>
       </c>
       <c r="E18">
-        <v>1.030365214589977</v>
+        <v>0.9929954603639897</v>
       </c>
       <c r="F18">
-        <v>1.039538173634442</v>
+        <v>0.9909151205883694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028140625013646</v>
+        <v>1.036718431069885</v>
       </c>
       <c r="J18">
-        <v>1.026309656719346</v>
+        <v>1.006510200362142</v>
       </c>
       <c r="K18">
-        <v>1.028826120880698</v>
+        <v>1.01560053393369</v>
       </c>
       <c r="L18">
-        <v>1.033708643327572</v>
+        <v>1.006936206674158</v>
       </c>
       <c r="M18">
-        <v>1.042849985948914</v>
+        <v>1.004892535441693</v>
       </c>
       <c r="N18">
-        <v>1.012814697200349</v>
+        <v>1.006074206599845</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020168980838826</v>
+        <v>0.9789692806327865</v>
       </c>
       <c r="D19">
-        <v>1.025515417827153</v>
+        <v>1.002062041929227</v>
       </c>
       <c r="E19">
-        <v>1.030432279712091</v>
+        <v>0.9933133444002831</v>
       </c>
       <c r="F19">
-        <v>1.039624709571219</v>
+        <v>0.9913184451120095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028149073634025</v>
+        <v>1.0367893755517</v>
       </c>
       <c r="J19">
-        <v>1.026350967234815</v>
+        <v>1.006711613043104</v>
       </c>
       <c r="K19">
-        <v>1.028861341472292</v>
+        <v>1.015780923639326</v>
       </c>
       <c r="L19">
-        <v>1.033761081094811</v>
+        <v>1.007183335948838</v>
       </c>
       <c r="M19">
-        <v>1.042921977368085</v>
+        <v>1.005223377027494</v>
       </c>
       <c r="N19">
-        <v>1.012828535460896</v>
+        <v>1.006142251067897</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019859411332359</v>
+        <v>0.9773759287132014</v>
       </c>
       <c r="D20">
-        <v>1.025292401555875</v>
+        <v>1.000944912836275</v>
       </c>
       <c r="E20">
-        <v>1.03013241647761</v>
+        <v>0.9918874816163019</v>
       </c>
       <c r="F20">
-        <v>1.039237807876296</v>
+        <v>0.9895092654318107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028111182813779</v>
+        <v>1.036470220920481</v>
       </c>
       <c r="J20">
-        <v>1.026166204465346</v>
+        <v>1.005807715987096</v>
       </c>
       <c r="K20">
-        <v>1.028703779781404</v>
+        <v>1.014971167415387</v>
       </c>
       <c r="L20">
-        <v>1.033526584019489</v>
+        <v>1.006074495761446</v>
       </c>
       <c r="M20">
-        <v>1.042600075920772</v>
+        <v>1.003739124610126</v>
       </c>
       <c r="N20">
-        <v>1.012766639276024</v>
+        <v>1.005836871237385</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018853611665032</v>
+        <v>0.9721002658011706</v>
       </c>
       <c r="D21">
-        <v>1.024567500874034</v>
+        <v>0.9972508208439651</v>
       </c>
       <c r="E21">
-        <v>1.029158727013525</v>
+        <v>0.9871757282239535</v>
       </c>
       <c r="F21">
-        <v>1.037981841957018</v>
+        <v>0.9835292433440888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027986126883801</v>
+        <v>1.035399167987485</v>
       </c>
       <c r="J21">
-        <v>1.025565308670331</v>
+        <v>1.002812617964465</v>
       </c>
       <c r="K21">
-        <v>1.028190712364592</v>
+        <v>1.012284465124912</v>
       </c>
       <c r="L21">
-        <v>1.032764513096966</v>
+        <v>1.002404202781119</v>
       </c>
       <c r="M21">
-        <v>1.041554620033711</v>
+        <v>0.9988295255168546</v>
       </c>
       <c r="N21">
-        <v>1.012565265888915</v>
+        <v>1.004824807620825</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01822172204166</v>
+        <v>0.9687064717292062</v>
       </c>
       <c r="D22">
-        <v>1.024111847532657</v>
+        <v>0.9948785784548428</v>
       </c>
       <c r="E22">
-        <v>1.028547452007058</v>
+        <v>0.9841520988070214</v>
       </c>
       <c r="F22">
-        <v>1.03719361894257</v>
+        <v>0.9796901685586533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027906069344612</v>
+        <v>1.034699421985896</v>
       </c>
       <c r="J22">
-        <v>1.025187342357953</v>
+        <v>1.000884377462882</v>
       </c>
       <c r="K22">
-        <v>1.02786750428558</v>
+        <v>1.010552179039476</v>
       </c>
       <c r="L22">
-        <v>1.032285605134816</v>
+        <v>1.000044181625396</v>
       </c>
       <c r="M22">
-        <v>1.040898130619859</v>
+        <v>0.9956749971782978</v>
       </c>
       <c r="N22">
-        <v>1.012438546808549</v>
+        <v>1.004173127122661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018556651267987</v>
+        <v>0.9705131018239735</v>
       </c>
       <c r="D23">
-        <v>1.02435338605305</v>
+        <v>0.9961409824811543</v>
       </c>
       <c r="E23">
-        <v>1.028871412631021</v>
+        <v>0.9857609671479202</v>
       </c>
       <c r="F23">
-        <v>1.037611332877063</v>
+        <v>0.9817331045249735</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027948644715302</v>
+        <v>1.035072912961324</v>
       </c>
       <c r="J23">
-        <v>1.025387724232727</v>
+        <v>1.001910972721332</v>
       </c>
       <c r="K23">
-        <v>1.028038901619062</v>
+        <v>1.011474682773011</v>
       </c>
       <c r="L23">
-        <v>1.032539460587664</v>
+        <v>1.001300389007643</v>
       </c>
       <c r="M23">
-        <v>1.041246069075467</v>
+        <v>0.9973538985156201</v>
       </c>
       <c r="N23">
-        <v>1.012505733070722</v>
+        <v>1.004520091345629</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019876282037506</v>
+        <v>0.977463125994383</v>
       </c>
       <c r="D24">
-        <v>1.025304556540251</v>
+        <v>1.001006031823867</v>
       </c>
       <c r="E24">
-        <v>1.030148756054033</v>
+        <v>0.9919654786173889</v>
       </c>
       <c r="F24">
-        <v>1.039258888868886</v>
+        <v>0.9896082356392448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028113255112173</v>
+        <v>1.036487740919894</v>
       </c>
       <c r="J24">
-        <v>1.026176275793216</v>
+        <v>1.005857191302291</v>
       </c>
       <c r="K24">
-        <v>1.028712370795964</v>
+        <v>1.015015503419649</v>
       </c>
       <c r="L24">
-        <v>1.033539364173808</v>
+        <v>1.006135174037886</v>
       </c>
       <c r="M24">
-        <v>1.042617617132891</v>
+        <v>1.003820333489332</v>
       </c>
       <c r="N24">
-        <v>1.012770013475711</v>
+        <v>1.005853587078668</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02140976689525</v>
+        <v>0.9852165079509981</v>
       </c>
       <c r="D25">
-        <v>1.026408809553403</v>
+        <v>1.006447948082695</v>
       </c>
       <c r="E25">
-        <v>1.031635016525695</v>
+        <v>0.9989169522755034</v>
       </c>
       <c r="F25">
-        <v>1.04117708009192</v>
+        <v>0.9984269283430178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028298031407603</v>
+        <v>1.0380193038381</v>
       </c>
       <c r="J25">
-        <v>1.02709062060638</v>
+        <v>1.010251847920921</v>
       </c>
       <c r="K25">
-        <v>1.02949114814499</v>
+        <v>1.018946985847297</v>
       </c>
       <c r="L25">
-        <v>1.034700692956171</v>
+        <v>1.011532104463291</v>
       </c>
       <c r="M25">
-        <v>1.044212806076294</v>
+        <v>1.011049713404276</v>
       </c>
       <c r="N25">
-        <v>1.013076215097097</v>
+        <v>1.007338010408242</v>
       </c>
     </row>
   </sheetData>
